--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>first</t>
   </si>
@@ -114,25 +114,34 @@
     <t>Touristic tax (35pax x 3 nights)</t>
   </si>
   <si>
-    <t>Sightseeing tour starting at the Airport and ending at the hotel - including a 50 seater bus and one English speaking guide, rates per person for a minimum of 35 pax</t>
+    <t>50 seater bus transfer from the Airport to the hotel</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>Cocktail lunch at the hotel’s terrace, including drinks (wine, beer, soft-drinks and water) from</t>
+  </si>
+  <si>
+    <t>iPad Treasure Hunt activity - Including 7 iPads rental, Public Transportation Cards (2 per team), 1 drink per person ( duration 4h) - from</t>
   </si>
   <si>
     <t>activity</t>
   </si>
   <si>
-    <t>Check in and free time</t>
-  </si>
-  <si>
-    <t>Dinner at Vai Moana - all to share menu including 2 drinks and coffee, from</t>
+    <t>Free time in the city centre</t>
+  </si>
+  <si>
+    <t>Dinner at Taller de Tapas Rambla Catalunya, tapas menu including drinks (wine and water) and coffees from</t>
   </si>
   <si>
     <t>restaurant</t>
   </si>
   <si>
-    <t>Mojito after dinner</t>
-  </si>
-  <si>
-    <t>SB ICARIA - Meeting room  rental (HD)</t>
+    <t>Oneway transfer from Taller de Tapas  to Hotel SB Icaria</t>
+  </si>
+  <si>
+    <t>SB ICARIA - Meeting room  rental (HD) - including WIFI, pens, paper, screen and projector</t>
   </si>
   <si>
     <t>Coffee break from</t>
@@ -147,18 +156,12 @@
     <t>Segway transportation (to start near the restaurant)</t>
   </si>
   <si>
-    <t>Free time in the city centre</t>
-  </si>
-  <si>
-    <t>Dinner at Casa Carmen, three courses menu including 2 drinks and coffee, from</t>
+    <t>Dinner at Casa Carmen, three courses menu including 2 drinks (2 glasses of wine, 2 beers or 2 soft-drinks or water) and coffee, from</t>
   </si>
   <si>
     <t>Oneway transfer from Casa Carmen to Hotel SB Icria</t>
   </si>
   <si>
-    <t>transfer</t>
-  </si>
-  <si>
     <t>Sailing Activity (3h) Starting and ending at Port olympic - including non alcoholic drinks open bar</t>
   </si>
   <si>
@@ -171,7 +174,7 @@
     <t>Free time</t>
   </si>
   <si>
-    <t>Dinner at Shoko, three courses menu drinks and coffee included, from</t>
+    <t>Dinner at Shoko, three courses menu drinks (wine 1 bottle each 3 pax and water) and coffee included, from</t>
   </si>
   <si>
     <t xml:space="preserve">Shoko - supplement to be seated in the terrace </t>
@@ -484,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -911,6 +914,36 @@
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1171,21 +1204,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="10"/>
@@ -1266,7 +1284,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -1585,37 +1603,46 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="17" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1627,88 +1654,88 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="13" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="13" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="13" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="15" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="14" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="15" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="15" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="15" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="58" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="59" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="60" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1717,19 +1744,19 @@
     <xf numFmtId="4" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -5859,7 +5886,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -6078,23 +6105,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="24.65" customHeight="1">
+    <row r="17" ht="13.65" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="102">
-        <v>43599.625</v>
+        <v>43599.458333333336</v>
       </c>
       <c r="C17" t="s" s="103">
         <v>32</v>
       </c>
       <c r="D17" s="94">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E17" s="95">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="F17" s="96">
         <f>D17*E17</f>
-        <v>805</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s" s="91">
         <v>33</v>
@@ -6103,42 +6130,42 @@
     <row r="18" ht="18.7" customHeight="1">
       <c r="A18" s="75"/>
       <c r="B18" s="102">
-        <v>43599.75</v>
+        <v>43599.520833333336</v>
       </c>
       <c r="C18" t="s" s="104">
         <v>34</v>
       </c>
       <c r="D18" s="105">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E18" s="100">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="101">
         <f>D18*E18</f>
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G18" t="s" s="91">
         <v>29</v>
       </c>
     </row>
-    <row r="19" ht="13.65" customHeight="1">
+    <row r="19" ht="24.65" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" s="102">
-        <v>43599.833333333336</v>
-      </c>
-      <c r="C19" t="s" s="103">
+        <v>43599.583333333336</v>
+      </c>
+      <c r="C19" t="s" s="104">
         <v>35</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="105">
         <v>35</v>
       </c>
-      <c r="E19" s="95">
-        <v>57</v>
-      </c>
-      <c r="F19" s="96">
-        <f>D19*E19</f>
-        <v>1995</v>
+      <c r="E19" s="100">
+        <v>60</v>
+      </c>
+      <c r="F19" s="101">
+        <f>E19*D19</f>
+        <v>2100</v>
       </c>
       <c r="G19" t="s" s="91">
         <v>36</v>
@@ -6147,173 +6174,172 @@
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="75"/>
       <c r="B20" s="102">
-        <v>43599.916666666664</v>
+        <v>43599.75</v>
       </c>
       <c r="C20" t="s" s="104">
         <v>37</v>
       </c>
       <c r="D20" s="105">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E20" s="100">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F20" s="96">
-        <f>D20*E20</f>
-        <v>420</v>
-      </c>
-      <c r="G20" t="s" s="91">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" ht="13.65" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="91"/>
+    </row>
+    <row r="21" ht="24.65" customHeight="1">
       <c r="A21" s="75"/>
       <c r="B21" s="102">
-        <v>43600.375</v>
+        <v>43599.833333333336</v>
       </c>
       <c r="C21" t="s" s="104">
         <v>38</v>
       </c>
       <c r="D21" s="105">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E21" s="100">
-        <v>345</v>
+        <v>50</v>
       </c>
       <c r="F21" s="101">
-        <f>E21*D21</f>
-        <v>345</v>
+        <f>D21*E21</f>
+        <v>1750</v>
       </c>
       <c r="G21" t="s" s="91">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" ht="13.65" customHeight="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="14.15" customHeight="1">
       <c r="A22" s="75"/>
       <c r="B22" s="102">
-        <v>43600.458333333336</v>
-      </c>
-      <c r="C22" t="s" s="103">
-        <v>39</v>
-      </c>
-      <c r="D22" s="94">
-        <v>35</v>
-      </c>
-      <c r="E22" s="95">
-        <f>10</f>
-        <v>10</v>
-      </c>
-      <c r="F22" s="96">
-        <f>D22*E22</f>
-        <v>350</v>
+        <v>43599.916666666664</v>
+      </c>
+      <c r="C22" t="s" s="104">
+        <v>40</v>
+      </c>
+      <c r="D22" s="106">
+        <v>1</v>
+      </c>
+      <c r="E22" s="107">
+        <v>270</v>
+      </c>
+      <c r="F22" s="108">
+        <f>E22*D22</f>
+        <v>270</v>
       </c>
       <c r="G22" t="s" s="91">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" ht="13.65" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" ht="14.15" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="102">
-        <v>43600.5625</v>
+        <v>43600.375</v>
       </c>
       <c r="C23" t="s" s="104">
-        <v>40</v>
-      </c>
-      <c r="D23" s="105">
-        <v>35</v>
-      </c>
-      <c r="E23" s="100">
-        <v>53</v>
-      </c>
-      <c r="F23" s="101">
+        <v>41</v>
+      </c>
+      <c r="D23" s="88">
+        <v>1</v>
+      </c>
+      <c r="E23" s="89">
+        <v>345</v>
+      </c>
+      <c r="F23" s="90">
         <f>E23*D23</f>
-        <v>1855</v>
+        <v>345</v>
       </c>
       <c r="G23" t="s" s="91">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" s="75"/>
       <c r="B24" s="102">
-        <v>43600.666666666664</v>
-      </c>
-      <c r="C24" t="s" s="104">
-        <v>41</v>
-      </c>
-      <c r="D24" s="105">
+        <v>43600.458333333336</v>
+      </c>
+      <c r="C24" t="s" s="103">
+        <v>42</v>
+      </c>
+      <c r="D24" s="94">
         <v>35</v>
       </c>
-      <c r="E24" s="100">
-        <v>75</v>
-      </c>
-      <c r="F24" s="101">
-        <f>E24*D24</f>
-        <v>2625</v>
+      <c r="E24" s="95">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="96">
+        <f>D24*E24</f>
+        <v>350</v>
       </c>
       <c r="G24" t="s" s="91">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="102">
-        <v>43600.625</v>
+        <v>43600.5625</v>
       </c>
       <c r="C25" t="s" s="104">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="105">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E25" s="100">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="F25" s="101">
         <f>E25*D25</f>
-        <v>120</v>
+        <v>1855</v>
       </c>
       <c r="G25" t="s" s="91">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="102">
-        <v>43600.75</v>
+        <v>43600.666666666664</v>
       </c>
       <c r="C26" t="s" s="104">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D26" s="105">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E26" s="100">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F26" s="101">
         <f>E26*D26</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="91"/>
+        <v>2625</v>
+      </c>
+      <c r="G26" t="s" s="91">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="102">
-        <v>43600.833333333336</v>
+        <v>43600.625</v>
       </c>
       <c r="C27" t="s" s="104">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D27" s="105">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E27" s="100">
-        <v>61.5</v>
+        <v>120</v>
       </c>
       <c r="F27" s="101">
         <f>E27*D27</f>
-        <v>2152.5</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s" s="91">
         <v>36</v>
@@ -6322,64 +6348,62 @@
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="102">
-        <v>43600.916666666664</v>
+        <v>43600.75</v>
       </c>
       <c r="C28" t="s" s="104">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D28" s="105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="100">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F28" s="101">
         <f>E28*D28</f>
-        <v>270</v>
-      </c>
-      <c r="G28" t="s" s="91">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" ht="13.65" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="91"/>
+    </row>
+    <row r="29" ht="24.65" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="102">
-        <v>43601.416666666664</v>
+        <v>43600.833333333336</v>
       </c>
       <c r="C29" t="s" s="104">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="105">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E29" s="100">
-        <v>4150</v>
+        <v>61.5</v>
       </c>
       <c r="F29" s="101">
         <f>E29*D29</f>
-        <v>4150</v>
+        <v>2152.5</v>
       </c>
       <c r="G29" t="s" s="91">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="102">
-        <v>43601.5</v>
+        <v>43600.916666666664</v>
       </c>
       <c r="C30" t="s" s="104">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="105">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E30" s="100">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="F30" s="101">
         <f>E30*D30</f>
-        <v>1400</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s" s="91">
         <v>33</v>
@@ -6388,62 +6412,64 @@
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="102">
-        <v>43601.458333333336</v>
+        <v>43601.416666666664</v>
       </c>
       <c r="C31" t="s" s="104">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="105">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="E31" s="100">
-        <v>16</v>
+        <v>4150</v>
       </c>
       <c r="F31" s="101">
         <f>E31*D31</f>
-        <v>560</v>
+        <v>4150</v>
       </c>
       <c r="G31" t="s" s="91">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="102">
-        <v>43601.541666666664</v>
+        <v>43601.5</v>
       </c>
       <c r="C32" t="s" s="104">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="105">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E32" s="100">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F32" s="101">
         <f>E32*D32</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="91"/>
+        <v>1400</v>
+      </c>
+      <c r="G32" t="s" s="91">
+        <v>36</v>
+      </c>
     </row>
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="102">
-        <v>43601.833333333336</v>
+        <v>43601.458333333336</v>
       </c>
       <c r="C33" t="s" s="104">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="105">
         <v>35</v>
       </c>
       <c r="E33" s="100">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="F33" s="101">
         <f>E33*D33</f>
-        <v>2485</v>
+        <v>560</v>
       </c>
       <c r="G33" t="s" s="91">
         <v>36</v>
@@ -6452,105 +6478,129 @@
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="102">
-        <v>43601.625</v>
+        <v>43601.541666666664</v>
       </c>
       <c r="C34" t="s" s="104">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" s="105">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E34" s="100">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" s="101">
         <f>E34*D34</f>
-        <v>350</v>
-      </c>
-      <c r="G34" t="s" s="91">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" ht="13.65" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="91"/>
+    </row>
+    <row r="35" ht="24.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="102">
-        <v>43602.375</v>
+        <v>43601.833333333336</v>
       </c>
       <c r="C35" t="s" s="104">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D35" s="105">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E35" s="100">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F35" s="101">
         <f>E35*D35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="91"/>
-    </row>
-    <row r="36" ht="14.65" customHeight="1">
+        <v>2485</v>
+      </c>
+      <c r="G35" t="s" s="91">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" ht="13.65" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="102">
+        <v>43601.625</v>
+      </c>
+      <c r="C36" t="s" s="104">
+        <v>53</v>
+      </c>
+      <c r="D36" s="105">
+        <v>35</v>
+      </c>
+      <c r="E36" s="100">
+        <v>10</v>
+      </c>
+      <c r="F36" s="101">
+        <f>E36*D36</f>
+        <v>350</v>
+      </c>
+      <c r="G36" t="s" s="91">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" ht="13.65" customHeight="1">
+      <c r="A37" s="75"/>
+      <c r="B37" s="102">
+        <v>43602.375</v>
+      </c>
+      <c r="C37" t="s" s="104">
+        <v>51</v>
+      </c>
+      <c r="D37" s="105">
+        <v>0</v>
+      </c>
+      <c r="E37" s="100">
+        <v>0</v>
+      </c>
+      <c r="F37" s="101">
+        <f>E37*D37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="91"/>
+    </row>
+    <row r="38" ht="14.65" customHeight="1">
+      <c r="A38" s="75"/>
+      <c r="B38" s="102">
         <v>43602.458333333336</v>
       </c>
-      <c r="C36" t="s" s="106">
-        <v>53</v>
-      </c>
-      <c r="D36" s="107">
+      <c r="C38" t="s" s="109">
+        <v>54</v>
+      </c>
+      <c r="D38" s="110">
         <v>1</v>
       </c>
-      <c r="E36" s="108">
+      <c r="E38" s="111">
         <v>240</v>
       </c>
-      <c r="F36" s="109">
-        <f>E36*D36</f>
+      <c r="F38" s="112">
+        <f>E38*D38</f>
         <v>240</v>
       </c>
-      <c r="G36" t="s" s="91">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="110"/>
-      <c r="B37" s="111"/>
-      <c r="C37" t="s" s="112">
-        <v>54</v>
-      </c>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="114">
+      <c r="G38" t="s" s="91">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" s="113"/>
+      <c r="B39" s="114"/>
+      <c r="C39" t="s" s="115">
+        <v>55</v>
+      </c>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="117">
         <v>0</v>
       </c>
-      <c r="G37" s="115"/>
-    </row>
-    <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="73"/>
-    </row>
-    <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="73"/>
+      <c r="G39" s="118"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="71"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="119"/>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
       <c r="G40" s="73"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
@@ -6582,45 +6632,63 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="71"/>
-      <c r="B44" t="s" s="117">
-        <v>55</v>
-      </c>
-      <c r="C44" s="118"/>
-      <c r="D44" s="118"/>
-      <c r="E44" s="118"/>
-      <c r="F44" s="118"/>
-      <c r="G44" s="119"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="72"/>
+      <c r="D44" s="72"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="72"/>
+      <c r="G44" s="73"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="71"/>
-      <c r="B45" t="s" s="117">
-        <v>56</v>
-      </c>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
-      <c r="E45" s="118"/>
-      <c r="F45" s="118"/>
-      <c r="G45" s="119"/>
+      <c r="B45" s="72"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
+      <c r="G45" s="73"/>
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="71"/>
-      <c r="B46" t="s" s="117">
+      <c r="B46" t="s" s="120">
+        <v>56</v>
+      </c>
+      <c r="C46" s="121"/>
+      <c r="D46" s="121"/>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="122"/>
+    </row>
+    <row r="47" ht="12.75" customHeight="1">
+      <c r="A47" s="71"/>
+      <c r="B47" t="s" s="120">
         <v>57</v>
       </c>
-      <c r="C46" s="118"/>
-      <c r="D46" s="118"/>
-      <c r="E46" s="118"/>
-      <c r="F46" s="118"/>
-      <c r="G46" s="119"/>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="120"/>
-      <c r="B47" s="121"/>
       <c r="C47" s="121"/>
       <c r="D47" s="121"/>
       <c r="E47" s="121"/>
       <c r="F47" s="121"/>
       <c r="G47" s="122"/>
+    </row>
+    <row r="48" ht="12.75" customHeight="1">
+      <c r="A48" s="71"/>
+      <c r="B48" t="s" s="120">
+        <v>58</v>
+      </c>
+      <c r="C48" s="121"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="122"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1">
+      <c r="A49" s="123"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6640,15 +6708,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="123" customWidth="1"/>
-    <col min="2" max="2" width="6.67188" style="123" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="123" customWidth="1"/>
-    <col min="4" max="4" width="73.5" style="123" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="123" customWidth="1"/>
-    <col min="6" max="6" width="13.6719" style="123" customWidth="1"/>
-    <col min="7" max="7" width="14.1719" style="123" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="123" customWidth="1"/>
-    <col min="9" max="256" width="8.85156" style="123" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="126" customWidth="1"/>
+    <col min="2" max="2" width="6.67188" style="126" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="126" customWidth="1"/>
+    <col min="4" max="4" width="73.5" style="126" customWidth="1"/>
+    <col min="5" max="5" width="14.5" style="126" customWidth="1"/>
+    <col min="6" max="6" width="13.6719" style="126" customWidth="1"/>
+    <col min="7" max="7" width="14.1719" style="126" customWidth="1"/>
+    <col min="8" max="8" width="8.85156" style="126" customWidth="1"/>
+    <col min="9" max="256" width="8.85156" style="126" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
@@ -6673,12 +6741,12 @@
     </row>
     <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="71"/>
-      <c r="B3" s="124"/>
+      <c r="B3" s="127"/>
       <c r="C3" t="s" s="76">
         <v>16</v>
       </c>
       <c r="D3" t="s" s="76">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="72"/>
@@ -6687,12 +6755,12 @@
     </row>
     <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="71"/>
-      <c r="B4" s="124"/>
+      <c r="B4" s="127"/>
       <c r="C4" t="s" s="78">
         <v>17</v>
       </c>
       <c r="D4" t="s" s="78">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="72"/>
@@ -6701,12 +6769,12 @@
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="71"/>
-      <c r="B5" s="124"/>
+      <c r="B5" s="127"/>
       <c r="C5" t="s" s="78">
         <v>18</v>
       </c>
       <c r="D5" t="s" s="78">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="72"/>
@@ -6715,12 +6783,12 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="124"/>
+      <c r="B6" s="127"/>
       <c r="C6" t="s" s="78">
         <v>19</v>
       </c>
       <c r="D6" t="s" s="78">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="72"/>
@@ -6729,12 +6797,12 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="71"/>
-      <c r="B7" s="124"/>
+      <c r="B7" s="127"/>
       <c r="C7" t="s" s="78">
         <v>20</v>
       </c>
       <c r="D7" t="s" s="78">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="72"/>
@@ -6743,12 +6811,12 @@
     </row>
     <row r="8" ht="13.5" customHeight="1">
       <c r="A8" s="71"/>
-      <c r="B8" s="124"/>
+      <c r="B8" s="127"/>
       <c r="C8" t="s" s="80">
         <v>21</v>
       </c>
       <c r="D8" t="s" s="80">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="72"/>
@@ -6788,20 +6856,20 @@
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" t="s" s="125">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s" s="126">
+      <c r="C12" t="s" s="128">
         <v>65</v>
       </c>
-      <c r="E12" t="s" s="126">
+      <c r="D12" t="s" s="129">
         <v>66</v>
       </c>
-      <c r="F12" t="s" s="126">
+      <c r="E12" t="s" s="129">
         <v>67</v>
       </c>
-      <c r="G12" t="s" s="127">
+      <c r="F12" t="s" s="129">
         <v>68</v>
+      </c>
+      <c r="G12" t="s" s="130">
+        <v>69</v>
       </c>
       <c r="H12" t="s" s="85">
         <v>27</v>
@@ -6810,34 +6878,34 @@
     <row r="13" ht="14.65" customHeight="1">
       <c r="A13" s="71"/>
       <c r="B13" s="72"/>
-      <c r="C13" s="128">
+      <c r="C13" s="131">
         <v>43577</v>
       </c>
-      <c r="D13" t="s" s="129">
-        <v>69</v>
-      </c>
-      <c r="E13" s="130">
+      <c r="D13" t="s" s="132">
+        <v>70</v>
+      </c>
+      <c r="E13" s="133">
         <v>50</v>
       </c>
-      <c r="F13" s="131">
+      <c r="F13" s="134">
         <v>150</v>
       </c>
-      <c r="G13" s="132">
+      <c r="G13" s="135">
         <f>F13*E13</f>
         <v>7500</v>
       </c>
-      <c r="H13" t="s" s="133">
+      <c r="H13" t="s" s="136">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="13.65" customHeight="1">
       <c r="A14" s="71"/>
       <c r="B14" s="72"/>
-      <c r="C14" s="134">
+      <c r="C14" s="137">
         <v>43577</v>
       </c>
-      <c r="D14" t="s" s="135">
-        <v>70</v>
+      <c r="D14" t="s" s="138">
+        <v>71</v>
       </c>
       <c r="E14" s="94">
         <v>24</v>
@@ -6845,22 +6913,22 @@
       <c r="F14" s="95">
         <v>130</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="139">
         <f>F14*E14</f>
         <v>3120</v>
       </c>
-      <c r="H14" t="s" s="133">
+      <c r="H14" t="s" s="136">
         <v>29</v>
       </c>
     </row>
     <row r="15" ht="13.65" customHeight="1">
       <c r="A15" s="71"/>
       <c r="B15" s="72"/>
-      <c r="C15" s="137">
+      <c r="C15" s="140">
         <v>43577</v>
       </c>
       <c r="D15" t="s" s="98">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E15" s="99">
         <f>E13*2+E14</f>
@@ -6869,22 +6937,22 @@
       <c r="F15" s="100">
         <v>1.21</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="141">
         <f>F15*E15</f>
         <v>150.04</v>
       </c>
-      <c r="H15" t="s" s="133">
+      <c r="H15" t="s" s="136">
         <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
       <c r="A16" s="71"/>
       <c r="B16" s="72"/>
-      <c r="C16" s="134">
+      <c r="C16" s="137">
         <v>43578</v>
       </c>
       <c r="D16" t="s" s="103">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="94">
         <v>1</v>
@@ -6892,21 +6960,21 @@
       <c r="F16" s="95">
         <v>228</v>
       </c>
-      <c r="G16" s="136">
+      <c r="G16" s="139">
         <v>228</v>
       </c>
-      <c r="H16" t="s" s="133">
-        <v>46</v>
+      <c r="H16" t="s" s="136">
+        <v>33</v>
       </c>
     </row>
     <row r="17" ht="38.25" customHeight="1">
       <c r="A17" s="71"/>
       <c r="B17" s="72"/>
-      <c r="C17" s="137">
+      <c r="C17" s="140">
         <v>43578</v>
       </c>
       <c r="D17" t="s" s="104">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" s="105">
         <v>1</v>
@@ -6914,21 +6982,21 @@
       <c r="F17" s="100">
         <v>345</v>
       </c>
-      <c r="G17" s="138">
+      <c r="G17" s="141">
         <v>345</v>
       </c>
-      <c r="H17" t="s" s="133">
-        <v>46</v>
+      <c r="H17" t="s" s="136">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.65" customHeight="1">
       <c r="A18" s="71"/>
       <c r="B18" s="72"/>
-      <c r="C18" s="134">
+      <c r="C18" s="137">
         <v>43578</v>
       </c>
       <c r="D18" t="s" s="103">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E18" s="94">
         <v>40</v>
@@ -6936,21 +7004,21 @@
       <c r="F18" s="95">
         <v>1.5</v>
       </c>
-      <c r="G18" s="136">
+      <c r="G18" s="139">
         <v>60</v>
       </c>
-      <c r="H18" t="s" s="133">
-        <v>46</v>
+      <c r="H18" t="s" s="136">
+        <v>33</v>
       </c>
     </row>
     <row r="19" ht="13.65" customHeight="1">
       <c r="A19" s="71"/>
       <c r="B19" s="72"/>
-      <c r="C19" s="137">
+      <c r="C19" s="140">
         <v>43578</v>
       </c>
       <c r="D19" t="s" s="104">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="105">
         <v>34</v>
@@ -6958,21 +7026,21 @@
       <c r="F19" s="100">
         <v>46</v>
       </c>
-      <c r="G19" s="138">
+      <c r="G19" s="141">
         <v>1564</v>
       </c>
-      <c r="H19" t="s" s="133">
-        <v>33</v>
+      <c r="H19" t="s" s="136">
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="71"/>
       <c r="B20" s="72"/>
-      <c r="C20" s="134">
+      <c r="C20" s="137">
         <v>43578</v>
       </c>
       <c r="D20" t="s" s="103">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="94">
         <v>62</v>
@@ -6980,22 +7048,22 @@
       <c r="F20" s="95">
         <v>38</v>
       </c>
-      <c r="G20" s="136">
+      <c r="G20" s="139">
         <f>F20*E20</f>
         <v>2356</v>
       </c>
-      <c r="H20" t="s" s="133">
-        <v>36</v>
+      <c r="H20" t="s" s="136">
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="13.65" customHeight="1">
       <c r="A21" s="71"/>
       <c r="B21" s="72"/>
-      <c r="C21" s="137">
+      <c r="C21" s="140">
         <v>43579</v>
       </c>
       <c r="D21" t="s" s="104">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E21" s="105">
         <v>102</v>
@@ -7003,21 +7071,21 @@
       <c r="F21" s="100">
         <v>3.5</v>
       </c>
-      <c r="G21" s="138">
+      <c r="G21" s="141">
         <v>357</v>
       </c>
-      <c r="H21" t="s" s="133">
-        <v>33</v>
+      <c r="H21" t="s" s="136">
+        <v>36</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="71"/>
       <c r="B22" s="72"/>
-      <c r="C22" s="134">
+      <c r="C22" s="137">
         <v>43579</v>
       </c>
       <c r="D22" t="s" s="103">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="94">
         <v>1</v>
@@ -7025,21 +7093,21 @@
       <c r="F22" s="95">
         <v>228</v>
       </c>
-      <c r="G22" s="136">
+      <c r="G22" s="139">
         <v>228</v>
       </c>
-      <c r="H22" t="s" s="133">
-        <v>46</v>
+      <c r="H22" t="s" s="136">
+        <v>33</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="71"/>
       <c r="B23" s="72"/>
-      <c r="C23" s="137">
+      <c r="C23" s="140">
         <v>43579</v>
       </c>
       <c r="D23" t="s" s="104">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" s="105">
         <v>1</v>
@@ -7047,59 +7115,59 @@
       <c r="F23" s="100">
         <v>228</v>
       </c>
-      <c r="G23" s="138">
+      <c r="G23" s="141">
         <v>228</v>
       </c>
-      <c r="H23" t="s" s="133">
-        <v>46</v>
+      <c r="H23" t="s" s="136">
+        <v>33</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1">
       <c r="A24" s="71"/>
       <c r="B24" s="72"/>
-      <c r="C24" s="139">
+      <c r="C24" s="142">
         <v>43579</v>
       </c>
-      <c r="D24" t="s" s="140">
-        <v>74</v>
-      </c>
-      <c r="E24" s="141">
+      <c r="D24" t="s" s="143">
+        <v>75</v>
+      </c>
+      <c r="E24" s="144">
         <v>40</v>
       </c>
-      <c r="F24" s="142">
+      <c r="F24" s="145">
         <v>1.5</v>
       </c>
-      <c r="G24" s="143">
+      <c r="G24" s="146">
         <v>60</v>
       </c>
-      <c r="H24" t="s" s="133">
-        <v>46</v>
+      <c r="H24" t="s" s="136">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1">
       <c r="A25" s="71"/>
-      <c r="B25" s="124"/>
-      <c r="C25" s="144"/>
-      <c r="D25" t="s" s="145">
-        <v>54</v>
-      </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="147">
+      <c r="B25" s="127"/>
+      <c r="C25" s="147"/>
+      <c r="D25" t="s" s="148">
+        <v>55</v>
+      </c>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="150">
         <v>0</v>
       </c>
       <c r="H25" t="s" s="91">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="71"/>
       <c r="B26" s="72"/>
       <c r="C26" s="81"/>
-      <c r="D26" s="148"/>
+      <c r="D26" s="151"/>
       <c r="E26" s="81"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="149"/>
+      <c r="G26" s="152"/>
       <c r="H26" s="73"/>
     </row>
     <row r="27" ht="13.5" customHeight="1">
@@ -7115,9 +7183,9 @@
     <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="71"/>
       <c r="B28" s="72"/>
-      <c r="C28" s="124"/>
-      <c r="D28" t="s" s="150">
-        <v>81</v>
+      <c r="C28" s="127"/>
+      <c r="D28" t="s" s="153">
+        <v>82</v>
       </c>
       <c r="E28" s="77"/>
       <c r="F28" s="72"/>
@@ -7127,9 +7195,9 @@
     <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="71"/>
       <c r="B29" s="72"/>
-      <c r="C29" s="124"/>
-      <c r="D29" t="s" s="151">
-        <v>82</v>
+      <c r="C29" s="127"/>
+      <c r="D29" t="s" s="154">
+        <v>83</v>
       </c>
       <c r="E29" s="77"/>
       <c r="F29" s="72"/>
@@ -7139,9 +7207,9 @@
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="71"/>
       <c r="B30" s="72"/>
-      <c r="C30" s="124"/>
-      <c r="D30" t="s" s="152">
-        <v>83</v>
+      <c r="C30" s="127"/>
+      <c r="D30" t="s" s="155">
+        <v>84</v>
       </c>
       <c r="E30" s="77"/>
       <c r="F30" s="72"/>
@@ -7151,9 +7219,9 @@
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="71"/>
       <c r="B31" s="72"/>
-      <c r="C31" s="124"/>
-      <c r="D31" t="s" s="152">
-        <v>84</v>
+      <c r="C31" s="127"/>
+      <c r="D31" t="s" s="155">
+        <v>85</v>
       </c>
       <c r="E31" s="77"/>
       <c r="F31" s="72"/>
@@ -7163,9 +7231,9 @@
     <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="71"/>
       <c r="B32" s="72"/>
-      <c r="C32" s="124"/>
-      <c r="D32" t="s" s="153">
-        <v>85</v>
+      <c r="C32" s="127"/>
+      <c r="D32" t="s" s="156">
+        <v>86</v>
       </c>
       <c r="E32" s="77"/>
       <c r="F32" s="72"/>
@@ -7225,48 +7293,48 @@
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="71"/>
       <c r="B38" s="72"/>
-      <c r="C38" t="s" s="117">
-        <v>55</v>
-      </c>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
+      <c r="C38" t="s" s="120">
+        <v>56</v>
+      </c>
+      <c r="D38" s="121"/>
+      <c r="E38" s="121"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
       <c r="H38" s="73"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="71"/>
       <c r="B39" s="72"/>
-      <c r="C39" t="s" s="117">
-        <v>56</v>
-      </c>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
+      <c r="C39" t="s" s="120">
+        <v>57</v>
+      </c>
+      <c r="D39" s="121"/>
+      <c r="E39" s="121"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="121"/>
       <c r="H39" s="73"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="71"/>
       <c r="B40" s="72"/>
-      <c r="C40" t="s" s="117">
-        <v>57</v>
-      </c>
-      <c r="D40" s="118"/>
-      <c r="E40" s="118"/>
-      <c r="F40" s="118"/>
-      <c r="G40" s="118"/>
+      <c r="C40" t="s" s="120">
+        <v>58</v>
+      </c>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
       <c r="H40" s="73"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="120"/>
-      <c r="B41" s="154"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="121"/>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
-      <c r="G41" s="121"/>
-      <c r="H41" s="122"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="157"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7286,12 +7354,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="155" customWidth="1"/>
-    <col min="2" max="2" width="10.1719" style="155" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="155" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="155" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="155" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="155" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="158" customWidth="1"/>
+    <col min="2" max="2" width="10.1719" style="158" customWidth="1"/>
+    <col min="3" max="3" width="8.85156" style="158" customWidth="1"/>
+    <col min="4" max="4" width="10.1719" style="158" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="158" customWidth="1"/>
+    <col min="6" max="256" width="8.85156" style="158" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.65" customHeight="1">
@@ -7317,53 +7385,53 @@
     </row>
     <row r="4" ht="13.65" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="B4" t="s" s="156">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s" s="156">
+      <c r="B4" t="s" s="159">
         <v>87</v>
       </c>
-      <c r="D4" t="s" s="156">
+      <c r="C4" t="s" s="159">
         <v>88</v>
+      </c>
+      <c r="D4" t="s" s="159">
+        <v>89</v>
       </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" ht="13.65" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="B5" s="157">
+      <c r="B5" s="160">
         <v>43646</v>
       </c>
-      <c r="C5" s="158">
+      <c r="C5" s="161">
         <v>3239.21</v>
       </c>
-      <c r="D5" t="s" s="156">
-        <v>89</v>
+      <c r="D5" t="s" s="159">
+        <v>90</v>
       </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" ht="13.65" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="157">
+      <c r="B6" s="160">
         <v>43738</v>
       </c>
-      <c r="C6" s="158">
+      <c r="C6" s="161">
         <v>6478.42</v>
       </c>
-      <c r="D6" t="s" s="156">
-        <v>90</v>
+      <c r="D6" t="s" s="159">
+        <v>91</v>
       </c>
       <c r="E6" s="11"/>
     </row>
     <row r="7" ht="13.65" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="157">
+      <c r="B7" s="160">
         <v>43766</v>
       </c>
-      <c r="C7" s="158">
+      <c r="C7" s="161">
         <v>6478.42</v>
       </c>
-      <c r="D7" t="s" s="156">
-        <v>90</v>
+      <c r="D7" t="s" s="159">
+        <v>91</v>
       </c>
       <c r="E7" s="11"/>
     </row>

--- a/rooming.xlsx
+++ b/rooming.xlsx
@@ -6108,7 +6108,7 @@
     <row r="17" ht="13.65" customHeight="1">
       <c r="A17" s="75"/>
       <c r="B17" s="102">
-        <v>43599.458333333336</v>
+        <v>43599</v>
       </c>
       <c r="C17" t="s" s="103">
         <v>32</v>
@@ -6130,7 +6130,7 @@
     <row r="18" ht="18.7" customHeight="1">
       <c r="A18" s="75"/>
       <c r="B18" s="102">
-        <v>43599.520833333336</v>
+        <v>43599</v>
       </c>
       <c r="C18" t="s" s="104">
         <v>34</v>
@@ -6152,7 +6152,7 @@
     <row r="19" ht="24.65" customHeight="1">
       <c r="A19" s="75"/>
       <c r="B19" s="102">
-        <v>43599.583333333336</v>
+        <v>43599</v>
       </c>
       <c r="C19" t="s" s="104">
         <v>35</v>
@@ -6174,7 +6174,7 @@
     <row r="20" ht="13.65" customHeight="1">
       <c r="A20" s="75"/>
       <c r="B20" s="102">
-        <v>43599.75</v>
+        <v>43599</v>
       </c>
       <c r="C20" t="s" s="104">
         <v>37</v>
@@ -6193,7 +6193,7 @@
     <row r="21" ht="24.65" customHeight="1">
       <c r="A21" s="75"/>
       <c r="B21" s="102">
-        <v>43599.833333333336</v>
+        <v>43599</v>
       </c>
       <c r="C21" t="s" s="104">
         <v>38</v>
@@ -6215,7 +6215,7 @@
     <row r="22" ht="14.15" customHeight="1">
       <c r="A22" s="75"/>
       <c r="B22" s="102">
-        <v>43599.916666666664</v>
+        <v>43599</v>
       </c>
       <c r="C22" t="s" s="104">
         <v>40</v>
@@ -6237,7 +6237,7 @@
     <row r="23" ht="14.15" customHeight="1">
       <c r="A23" s="75"/>
       <c r="B23" s="102">
-        <v>43600.375</v>
+        <v>43600</v>
       </c>
       <c r="C23" t="s" s="104">
         <v>41</v>
@@ -6259,7 +6259,7 @@
     <row r="24" ht="13.65" customHeight="1">
       <c r="A24" s="75"/>
       <c r="B24" s="102">
-        <v>43600.458333333336</v>
+        <v>43600</v>
       </c>
       <c r="C24" t="s" s="103">
         <v>42</v>
@@ -6282,7 +6282,7 @@
     <row r="25" ht="13.65" customHeight="1">
       <c r="A25" s="75"/>
       <c r="B25" s="102">
-        <v>43600.5625</v>
+        <v>43600</v>
       </c>
       <c r="C25" t="s" s="104">
         <v>43</v>
@@ -6304,7 +6304,7 @@
     <row r="26" ht="13.65" customHeight="1">
       <c r="A26" s="75"/>
       <c r="B26" s="102">
-        <v>43600.666666666664</v>
+        <v>43600</v>
       </c>
       <c r="C26" t="s" s="104">
         <v>44</v>
@@ -6326,7 +6326,7 @@
     <row r="27" ht="13.65" customHeight="1">
       <c r="A27" s="75"/>
       <c r="B27" s="102">
-        <v>43600.625</v>
+        <v>43600</v>
       </c>
       <c r="C27" t="s" s="104">
         <v>45</v>
@@ -6348,7 +6348,7 @@
     <row r="28" ht="13.65" customHeight="1">
       <c r="A28" s="75"/>
       <c r="B28" s="102">
-        <v>43600.75</v>
+        <v>43600</v>
       </c>
       <c r="C28" t="s" s="104">
         <v>37</v>
@@ -6368,7 +6368,7 @@
     <row r="29" ht="24.65" customHeight="1">
       <c r="A29" s="75"/>
       <c r="B29" s="102">
-        <v>43600.833333333336</v>
+        <v>43600</v>
       </c>
       <c r="C29" t="s" s="104">
         <v>46</v>
@@ -6390,7 +6390,7 @@
     <row r="30" ht="13.65" customHeight="1">
       <c r="A30" s="75"/>
       <c r="B30" s="102">
-        <v>43600.916666666664</v>
+        <v>43600</v>
       </c>
       <c r="C30" t="s" s="104">
         <v>47</v>
@@ -6412,7 +6412,7 @@
     <row r="31" ht="13.65" customHeight="1">
       <c r="A31" s="75"/>
       <c r="B31" s="102">
-        <v>43601.416666666664</v>
+        <v>43601</v>
       </c>
       <c r="C31" t="s" s="104">
         <v>48</v>
@@ -6434,7 +6434,7 @@
     <row r="32" ht="13.65" customHeight="1">
       <c r="A32" s="75"/>
       <c r="B32" s="102">
-        <v>43601.5</v>
+        <v>43601</v>
       </c>
       <c r="C32" t="s" s="104">
         <v>49</v>
@@ -6456,7 +6456,7 @@
     <row r="33" ht="13.65" customHeight="1">
       <c r="A33" s="75"/>
       <c r="B33" s="102">
-        <v>43601.458333333336</v>
+        <v>43601</v>
       </c>
       <c r="C33" t="s" s="104">
         <v>50</v>
@@ -6478,7 +6478,7 @@
     <row r="34" ht="13.65" customHeight="1">
       <c r="A34" s="75"/>
       <c r="B34" s="102">
-        <v>43601.541666666664</v>
+        <v>43601</v>
       </c>
       <c r="C34" t="s" s="104">
         <v>51</v>
@@ -6498,7 +6498,7 @@
     <row r="35" ht="24.65" customHeight="1">
       <c r="A35" s="75"/>
       <c r="B35" s="102">
-        <v>43601.833333333336</v>
+        <v>43601</v>
       </c>
       <c r="C35" t="s" s="104">
         <v>52</v>
@@ -6520,7 +6520,7 @@
     <row r="36" ht="13.65" customHeight="1">
       <c r="A36" s="75"/>
       <c r="B36" s="102">
-        <v>43601.625</v>
+        <v>43601</v>
       </c>
       <c r="C36" t="s" s="104">
         <v>53</v>
@@ -6542,7 +6542,7 @@
     <row r="37" ht="13.65" customHeight="1">
       <c r="A37" s="75"/>
       <c r="B37" s="102">
-        <v>43602.375</v>
+        <v>43602</v>
       </c>
       <c r="C37" t="s" s="104">
         <v>51</v>
@@ -6562,7 +6562,7 @@
     <row r="38" ht="14.65" customHeight="1">
       <c r="A38" s="75"/>
       <c r="B38" s="102">
-        <v>43602.458333333336</v>
+        <v>43602</v>
       </c>
       <c r="C38" t="s" s="109">
         <v>54</v>
